--- a/PEI_sakila/DW Sakila Expanding.xlsx
+++ b/PEI_sakila/DW Sakila Expanding.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>country</t>
   </si>
   <si>
-    <t>auxiliar</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>intermédia</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -71,21 +65,9 @@
     <t>film_text</t>
   </si>
   <si>
-    <t>Facto</t>
-  </si>
-  <si>
-    <t>não aditivo</t>
-  </si>
-  <si>
     <t>payment</t>
   </si>
   <si>
-    <t>facto</t>
-  </si>
-  <si>
-    <t>aditivo</t>
-  </si>
-  <si>
     <t>film_actor</t>
   </si>
   <si>
@@ -101,16 +83,31 @@
     <t>type of facts</t>
   </si>
   <si>
-    <t>database - Fact tables</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>x</t>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>additive</t>
+  </si>
+  <si>
+    <t>without facts</t>
+  </si>
+  <si>
+    <t>database - fact tables</t>
+  </si>
+  <si>
+    <t>database tables</t>
   </si>
 </sst>
 </file>
@@ -140,12 +137,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -195,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,28 +218,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -507,375 +525,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6" t="s">
+      <c r="B18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B20:E20"/>
+  <mergeCells count="2">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
